--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bader\OneDrive\Desktop\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bader\OneDrive\Desktop\LibraryManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0663E36E-0BD6-4FBF-8865-9C568AB8B194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE5313A-E56F-4FB1-982E-B0E836C7BEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="data (9)" sheetId="23" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'data (9)'!$A$1:$C$25</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'data (9)'!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Column1</t>
   </si>
@@ -173,15 +173,6 @@
     <t>crime &amp; punishment</t>
   </si>
   <si>
-    <t>شمس المعارف الكبرى</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> احمد</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> سحر</t>
-  </si>
-  <si>
     <t>كزهر اللوز أو أبعد</t>
   </si>
   <si>
@@ -218,20 +209,20 @@
     <t>b3</t>
   </si>
   <si>
-    <t>b4</t>
-  </si>
-  <si>
     <t>c1</t>
   </si>
   <si>
     <t>availability</t>
+  </si>
+  <si>
+    <t>c2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -246,6 +237,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,10 +265,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,13 +318,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{5CCA4714-C76F-4D89-8081-5D64D9BA1033}" name="data__9" displayName="data__9" ref="A1:E25" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:E25" xr:uid="{5CCA4714-C76F-4D89-8081-5D64D9BA1033}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{5CCA4714-C76F-4D89-8081-5D64D9BA1033}" name="data__9" displayName="data__9" ref="A1:E12" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:E12" xr:uid="{5CCA4714-C76F-4D89-8081-5D64D9BA1033}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C55E36FA-3332-4C62-834A-C398D5B74871}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{748D36D4-7870-4FEA-8D51-F2ED12ED19B6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{36B54DD6-AB51-4B38-BC22-C9EEC0FED87B}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00C2F9E4-54BD-4806-897E-79581F2B64B4}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C55E36FA-3332-4C62-834A-C398D5B74871}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{748D36D4-7870-4FEA-8D51-F2ED12ED19B6}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{36B54DD6-AB51-4B38-BC22-C9EEC0FED87B}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00C2F9E4-54BD-4806-897E-79581F2B64B4}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{BE9B224B-C5C8-4E7F-AFD9-AC345A7B398B}" uniqueName="5" name="availability" queryTableFieldId="6" dataDxfId="0">
       <calculatedColumnFormula>COUNTA(data__9[[#This Row],[Column1]:[Column4]])</calculatedColumnFormula>
     </tableColumn>
@@ -625,7 +623,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,10 +644,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -680,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -697,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -714,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -731,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -748,62 +746,52 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -913,8 +901,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/sampleData.xlsx
+++ b/sampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bader\OneDrive\Desktop\LibraryManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE5313A-E56F-4FB1-982E-B0E836C7BEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4365B932-7410-4485-84B3-AC3CB0DD7A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Column1</t>
   </si>
@@ -173,24 +173,6 @@
     <t>crime &amp; punishment</t>
   </si>
   <si>
-    <t>كزهر اللوز أو أبعد</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> محمود درويش</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> شعر </t>
-  </si>
-  <si>
-    <t>الأخوة كرمازوف</t>
-  </si>
-  <si>
-    <t>دوستويفسكي</t>
-  </si>
-  <si>
-    <t>ادب</t>
-  </si>
-  <si>
     <t>Column4</t>
   </si>
   <si>
@@ -209,13 +191,7 @@
     <t>b3</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
     <t>availability</t>
-  </si>
-  <si>
-    <t>c2</t>
   </si>
 </sst>
 </file>
@@ -623,7 +599,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -661,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -678,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -695,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -712,7 +688,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -729,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -746,45 +722,24 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
